--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>33.74028533333333</v>
+        <v>86.360967</v>
       </c>
       <c r="H2">
-        <v>101.220856</v>
+        <v>259.082901</v>
       </c>
       <c r="I2">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="J2">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N2">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O2">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P2">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q2">
-        <v>4611.90725978402</v>
+        <v>22025.87338338271</v>
       </c>
       <c r="R2">
-        <v>41507.16533805617</v>
+        <v>198232.8604504444</v>
       </c>
       <c r="S2">
-        <v>0.08751197489312088</v>
+        <v>0.2143561253492773</v>
       </c>
       <c r="T2">
-        <v>0.08751197489312086</v>
+        <v>0.2143561253492773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>33.74028533333333</v>
+        <v>86.360967</v>
       </c>
       <c r="H3">
-        <v>101.220856</v>
+        <v>259.082901</v>
       </c>
       <c r="I3">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="J3">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N3">
         <v>2.685736</v>
       </c>
       <c r="O3">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P3">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q3">
-        <v>30.20583299000178</v>
+        <v>77.31425268890401</v>
       </c>
       <c r="R3">
-        <v>271.852496910016</v>
+        <v>695.8282742001361</v>
       </c>
       <c r="S3">
-        <v>0.0005731624573844163</v>
+        <v>0.0007524234500127311</v>
       </c>
       <c r="T3">
-        <v>0.0005731624573844161</v>
+        <v>0.0007524234500127312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>33.74028533333333</v>
+        <v>86.360967</v>
       </c>
       <c r="H4">
-        <v>101.220856</v>
+        <v>259.082901</v>
       </c>
       <c r="I4">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="J4">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N4">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q4">
-        <v>165.4394271274018</v>
+        <v>608.892776473674</v>
       </c>
       <c r="R4">
-        <v>1488.954844146616</v>
+        <v>5480.034988263065</v>
       </c>
       <c r="S4">
-        <v>0.003139250244547091</v>
+        <v>0.005925753501176951</v>
       </c>
       <c r="T4">
-        <v>0.00313925024454709</v>
+        <v>0.005925753501176951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>33.74028533333333</v>
+        <v>86.360967</v>
       </c>
       <c r="H5">
-        <v>101.220856</v>
+        <v>259.082901</v>
       </c>
       <c r="I5">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="J5">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N5">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q5">
-        <v>1404.8648869851</v>
+        <v>2792.121627564654</v>
       </c>
       <c r="R5">
-        <v>12643.7839828659</v>
+        <v>25129.09464808188</v>
       </c>
       <c r="S5">
-        <v>0.02665762639898026</v>
+        <v>0.02717296895206063</v>
       </c>
       <c r="T5">
-        <v>0.02665762639898026</v>
+        <v>0.02717296895206063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>626.6578360000001</v>
       </c>
       <c r="I6">
-        <v>0.7298069855566349</v>
+        <v>0.6003523616657895</v>
       </c>
       <c r="J6">
-        <v>0.7298069855566348</v>
+        <v>0.6003523616657896</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N6">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O6">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P6">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q6">
-        <v>28552.29581588347</v>
+        <v>53275.17214438097</v>
       </c>
       <c r="R6">
-        <v>256970.6623429513</v>
+        <v>479476.5492994287</v>
       </c>
       <c r="S6">
-        <v>0.5417862185497568</v>
+        <v>0.5184747628123975</v>
       </c>
       <c r="T6">
-        <v>0.5417862185497567</v>
+        <v>0.5184747628123975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>626.6578360000001</v>
       </c>
       <c r="I7">
-        <v>0.7298069855566349</v>
+        <v>0.6003523616657895</v>
       </c>
       <c r="J7">
-        <v>0.7298069855566348</v>
+        <v>0.6003523616657896</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N7">
         <v>2.685736</v>
       </c>
       <c r="O7">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P7">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q7">
         <v>187.0041677585885</v>
@@ -883,10 +883,10 @@
         <v>1683.037509827296</v>
       </c>
       <c r="S7">
-        <v>0.003548446035873877</v>
+        <v>0.001819927324885992</v>
       </c>
       <c r="T7">
-        <v>0.003548446035873877</v>
+        <v>0.001819927324885992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>626.6578360000001</v>
       </c>
       <c r="I8">
-        <v>0.7298069855566349</v>
+        <v>0.6003523616657895</v>
       </c>
       <c r="J8">
-        <v>0.7298069855566348</v>
+        <v>0.6003523616657896</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N8">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O8">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P8">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q8">
-        <v>1024.234703100489</v>
+        <v>1472.761915928308</v>
       </c>
       <c r="R8">
-        <v>9218.112327904397</v>
+        <v>13254.85724335478</v>
       </c>
       <c r="S8">
-        <v>0.01943508326891003</v>
+        <v>0.01433294073589585</v>
       </c>
       <c r="T8">
-        <v>0.01943508326891002</v>
+        <v>0.01433294073589585</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>626.6578360000001</v>
       </c>
       <c r="I9">
-        <v>0.7298069855566349</v>
+        <v>0.6003523616657895</v>
       </c>
       <c r="J9">
-        <v>0.7298069855566348</v>
+        <v>0.6003523616657896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N9">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O9">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P9">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q9">
-        <v>8697.511804785248</v>
+        <v>6753.455709446699</v>
       </c>
       <c r="R9">
-        <v>78277.60624306723</v>
+        <v>60781.10138502029</v>
       </c>
       <c r="S9">
-        <v>0.1650372377020942</v>
+        <v>0.06572473079261028</v>
       </c>
       <c r="T9">
-        <v>0.1650372377020942</v>
+        <v>0.06572473079261028</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.45754733333333</v>
+        <v>52.26262533333333</v>
       </c>
       <c r="H10">
-        <v>130.372642</v>
+        <v>156.787876</v>
       </c>
       <c r="I10">
-        <v>0.1518322430377689</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="J10">
-        <v>0.1518322430377688</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N10">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O10">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P10">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q10">
-        <v>5940.14472785157</v>
+        <v>13329.28530403289</v>
       </c>
       <c r="R10">
-        <v>53461.30255066412</v>
+        <v>119963.567736296</v>
       </c>
       <c r="S10">
-        <v>0.1127155788274883</v>
+        <v>0.1297208016097633</v>
       </c>
       <c r="T10">
-        <v>0.1127155788274882</v>
+        <v>0.1297208016097633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.45754733333333</v>
+        <v>52.26262533333333</v>
       </c>
       <c r="H11">
-        <v>130.372642</v>
+        <v>156.787876</v>
       </c>
       <c r="I11">
-        <v>0.1518322430377689</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="J11">
-        <v>0.1518322430377688</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N11">
         <v>2.685736</v>
       </c>
       <c r="O11">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P11">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q11">
-        <v>38.90516644827911</v>
+        <v>46.78787143741511</v>
       </c>
       <c r="R11">
-        <v>350.1464980345119</v>
+        <v>421.090842936736</v>
       </c>
       <c r="S11">
-        <v>0.000738234261370194</v>
+        <v>0.0004553402564381825</v>
       </c>
       <c r="T11">
-        <v>0.0007382342613701935</v>
+        <v>0.0004553402564381826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.45754733333333</v>
+        <v>52.26262533333333</v>
       </c>
       <c r="H12">
-        <v>130.372642</v>
+        <v>156.787876</v>
       </c>
       <c r="I12">
-        <v>0.1518322430377689</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="J12">
-        <v>0.1518322430377688</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N12">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O12">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P12">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q12">
-        <v>213.0862754763291</v>
+        <v>368.480531777935</v>
       </c>
       <c r="R12">
-        <v>1917.776479286962</v>
+        <v>3316.324786001415</v>
       </c>
       <c r="S12">
-        <v>0.004043359881097532</v>
+        <v>0.003586057982070756</v>
       </c>
       <c r="T12">
-        <v>0.00404335988109753</v>
+        <v>0.003586057982070756</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.45754733333333</v>
+        <v>52.26262533333333</v>
       </c>
       <c r="H13">
-        <v>130.372642</v>
+        <v>156.787876</v>
       </c>
       <c r="I13">
-        <v>0.1518322430377689</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="J13">
-        <v>0.1518322430377688</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N13">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O13">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P13">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q13">
-        <v>1809.46846536527</v>
+        <v>1689.693985322192</v>
       </c>
       <c r="R13">
-        <v>16285.21618828743</v>
+        <v>15207.24586789973</v>
       </c>
       <c r="S13">
-        <v>0.03433507006781294</v>
+        <v>0.01644412684188499</v>
       </c>
       <c r="T13">
-        <v>0.03433507006781292</v>
+        <v>0.01644412684188499</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1370303333333333</v>
+        <v>0.4293706666666666</v>
       </c>
       <c r="H14">
-        <v>0.411091</v>
+        <v>1.288112</v>
       </c>
       <c r="I14">
-        <v>0.0004787574115636888</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="J14">
-        <v>0.0004787574115636886</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N14">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O14">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P14">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q14">
-        <v>18.73046368360955</v>
+        <v>109.5085461298578</v>
       </c>
       <c r="R14">
-        <v>168.574173152486</v>
+        <v>985.5769151687199</v>
       </c>
       <c r="S14">
-        <v>0.0003554147504027032</v>
+        <v>0.001065738789669907</v>
       </c>
       <c r="T14">
-        <v>0.000355414750402703</v>
+        <v>0.001065738789669907</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1370303333333333</v>
+        <v>0.4293706666666666</v>
       </c>
       <c r="H15">
-        <v>0.411091</v>
+        <v>1.288112</v>
       </c>
       <c r="I15">
-        <v>0.0004787574115636888</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="J15">
-        <v>0.0004787574115636886</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N15">
         <v>2.685736</v>
       </c>
       <c r="O15">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P15">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q15">
-        <v>0.1226757664417778</v>
+        <v>0.3843920856035556</v>
       </c>
       <c r="R15">
-        <v>1.104081897976</v>
+        <v>3.459528770432</v>
       </c>
       <c r="S15">
-        <v>2.327800189405799E-06</v>
+        <v>3.740909459103204E-06</v>
       </c>
       <c r="T15">
-        <v>2.327800189405798E-06</v>
+        <v>3.740909459103205E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1370303333333333</v>
+        <v>0.4293706666666666</v>
       </c>
       <c r="H16">
-        <v>0.411091</v>
+        <v>1.288112</v>
       </c>
       <c r="I16">
-        <v>0.0004787574115636888</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="J16">
-        <v>0.0004787574115636886</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N16">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O16">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P16">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q16">
-        <v>0.6719036197167778</v>
+        <v>3.027301643843555</v>
       </c>
       <c r="R16">
-        <v>6.047132577450999</v>
+        <v>27.245714794592</v>
       </c>
       <c r="S16">
-        <v>1.274952191948573E-05</v>
+        <v>2.946174434687237E-05</v>
       </c>
       <c r="T16">
-        <v>1.274952191948572E-05</v>
+        <v>2.946174434687237E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1370303333333333</v>
+        <v>0.4293706666666666</v>
       </c>
       <c r="H17">
-        <v>0.411091</v>
+        <v>1.288112</v>
       </c>
       <c r="I17">
-        <v>0.0004787574115636888</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="J17">
-        <v>0.0004787574115636886</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N17">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O17">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P17">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q17">
-        <v>5.705615760210445</v>
+        <v>13.88190945849244</v>
       </c>
       <c r="R17">
-        <v>51.350541841894</v>
+        <v>124.937185126432</v>
       </c>
       <c r="S17">
-        <v>0.0001082653390520941</v>
+        <v>0.0001350989480497469</v>
       </c>
       <c r="T17">
-        <v>0.0001082653390520941</v>
+        <v>0.0001350989480497469</v>
       </c>
     </row>
   </sheetData>
